--- a/Outputs/stats over time.xlsx
+++ b/Outputs/stats over time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD010A7-4090-4D68-83DA-E1803AB07A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B179445F-4ECE-4CD6-9108-BA2A830DA832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,19 +20,12 @@
     <sheet name="PLO charts" sheetId="5" r:id="rId5"/>
     <sheet name="combined charts" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'NL SOT'!$A$2:$A$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'NL SOT'!$AB$2:$AB$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'NL SOT'!$AL$2:$AL$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'NL SOT'!$H$2:$H$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'NL SOT'!$R$2:$R$14</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -64,13 +57,13 @@
     <t>Aggro Factor</t>
   </si>
   <si>
+    <t>Raymond</t>
+  </si>
+  <si>
     <t>Scott</t>
   </si>
   <si>
     <t>Cedric</t>
-  </si>
-  <si>
-    <t>Raymond</t>
   </si>
   <si>
     <t>04/16/21</t>
@@ -113,6 +106,9 @@
   </si>
   <si>
     <t>06/14/21</t>
+  </si>
+  <si>
+    <t>06/17/21</t>
   </si>
   <si>
     <t>04/09/21</t>
@@ -220,7 +216,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -246,7 +242,28 @@
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -265,13 +282,17 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>04/16/21</c:v>
                 </c:pt>
@@ -310,16 +331,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$C$2:$C$14</c:f>
+              <c:f>'NL SOT'!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.71699999999999997</c:v>
                 </c:pt>
@@ -358,138 +382,160 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70699999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D632-4851-A1CA-54127F1DC90C}"/>
+              <c16:uniqueId val="{00000000-548A-4161-8C11-07B430DA04F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Scott</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'NL SOT'!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>04/16/21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04/19/21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04/29/21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05/13/21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>05/17/21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>05/24/21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05/27/21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>05/31/21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>06/07/21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>06/10/21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NL SOT'!$W$2:$W$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-548A-4161-8C11-07B430DA04F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Scott</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>05/31/21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>06/07/21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>06/10/21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'NL SOT'!$W$2:$W$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.64200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.59299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.61699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.76200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.752</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.63400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.69399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.60599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.64900000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D632-4851-A1CA-54127F1DC90C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
             <c:v>Raymond</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>04/16/21</c:v>
                 </c:pt>
@@ -528,16 +574,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$M$2:$M$14</c:f>
+              <c:f>'NL SOT'!$M$2:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.40300000000000002</c:v>
                 </c:pt>
@@ -567,13 +616,16 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D632-4851-A1CA-54127F1DC90C}"/>
+              <c16:uniqueId val="{00000002-548A-4161-8C11-07B430DA04F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -583,12 +635,21 @@
           <c:tx>
             <c:v>Cedric</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>04/16/21</c:v>
                 </c:pt>
@@ -627,6 +688,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -673,12 +737,15 @@
                 <c:pt idx="12">
                   <c:v>0.59799999999999998</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D632-4851-A1CA-54127F1DC90C}"/>
+              <c16:uniqueId val="{00000003-548A-4161-8C11-07B430DA04F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -696,6 +763,714 @@
       </c:barChart>
       <c:catAx>
         <c:axId val="599715712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599716128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="599716128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599715712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Aggression Frequency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Scotty</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'NL SOT'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>04/16/21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04/19/21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04/29/21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05/13/21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>05/17/21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>05/24/21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05/27/21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>05/31/21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>06/07/21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>06/10/21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NL SOT'!$Z$2:$Z$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.44700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FF1-4A07-9EF0-D8F7B3334B22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Raymond</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'NL SOT'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>04/16/21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04/19/21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04/29/21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05/13/21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>05/17/21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>05/24/21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05/27/21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>05/31/21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>06/07/21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>06/10/21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NL SOT'!$P$2:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7FF1-4A07-9EF0-D8F7B3334B22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cedric</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'NL SOT'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>04/16/21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04/19/21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04/29/21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05/13/21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>05/17/21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>05/24/21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05/27/21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>05/31/21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>06/07/21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>06/10/21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NL SOT'!$AJ$2:$AJ$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7FF1-4A07-9EF0-D8F7B3334B22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Fish</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'NL SOT'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>04/16/21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04/19/21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04/29/21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05/13/21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>05/17/21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>05/24/21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05/27/21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>05/31/21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>06/07/21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>06/10/21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NL SOT'!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7FF1-4A07-9EF0-D8F7B3334B22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="667382671"/>
+        <c:axId val="667383503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="667382671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +1513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599716128"/>
+        <c:crossAx val="667383503"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -746,7 +1521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599716128"/>
+        <c:axId val="667383503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,683 +1572,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599715712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Aggression Frequency</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Scotty</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>05/31/21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>06/07/21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>06/10/21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'NL SOT'!$Z$2:$Z$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.44700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.41199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.61299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56699999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.60699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.61299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.51800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.59299999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D590-4141-AA48-8DB32FA6FBC8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Raymond</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>05/31/21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>06/07/21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>06/10/21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'NL SOT'!$P$2:$P$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.23899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.432</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.48199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.439</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.224</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.33100000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D590-4141-AA48-8DB32FA6FBC8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Cedric</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>05/31/21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>06/07/21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>06/10/21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'NL SOT'!$AJ$2:$AJ$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.10199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.7999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.129</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.25900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.309</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.245</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D590-4141-AA48-8DB32FA6FBC8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Fish</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>05/31/21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>06/07/21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>06/10/21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'NL SOT'!$F$2:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>9.6000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.113</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.106</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.159</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.114</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.14899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.126</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D590-4141-AA48-8DB32FA6FBC8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="667382671"/>
-        <c:axId val="667383503"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="667382671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="667383503"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="667383503"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="667382671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1482,15 +1584,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1508,40 +1610,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1611,6 +1681,11 @@
           <c:tx>
             <c:v>Fish</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1712,16 +1787,21 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-79F7-4AC1-92CA-489FE0FFC611}"/>
+              <c16:uniqueId val="{00000000-C1F8-490C-9B00-BF1AB52F39AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:v>Scott</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1820,16 +1900,21 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-79F7-4AC1-92CA-489FE0FFC611}"/>
+              <c16:uniqueId val="{00000001-C1F8-490C-9B00-BF1AB52F39AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:v>Raymond</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1922,7 +2007,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-79F7-4AC1-92CA-489FE0FFC611}"/>
+              <c16:uniqueId val="{00000002-C1F8-490C-9B00-BF1AB52F39AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1932,6 +2017,11 @@
           <c:tx>
             <c:v>Cedric</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2024,13 +2114,16 @@
                 <c:pt idx="12">
                   <c:v>0.59799999999999998</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-79F7-4AC1-92CA-489FE0FFC611}"/>
+              <c16:uniqueId val="{00000003-C1F8-490C-9B00-BF1AB52F39AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2191,7 +2284,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2220,29 +2313,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2251,7 +2324,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Scotty</c:v>
@@ -2261,9 +2334,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2363,7 +2436,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BFA8-459C-8C97-11BDD1DEBA1F}"/>
+              <c16:uniqueId val="{00000000-0BEF-48EE-B566-A87CAB94BFAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2378,9 +2451,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2474,12 +2547,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BFA8-459C-8C97-11BDD1DEBA1F}"/>
+              <c16:uniqueId val="{00000001-0BEF-48EE-B566-A87CAB94BFAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:v>Cedric</c:v>
@@ -2489,9 +2562,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2591,12 +2664,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BFA8-459C-8C97-11BDD1DEBA1F}"/>
+              <c16:uniqueId val="{00000002-0BEF-48EE-B566-A87CAB94BFAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:v>Fish</c:v>
@@ -2606,9 +2679,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2711,7 +2784,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BFA8-459C-8C97-11BDD1DEBA1F}"/>
+              <c16:uniqueId val="{00000003-0BEF-48EE-B566-A87CAB94BFAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2747,16 +2820,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2794,9 +2867,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
@@ -2807,15 +2880,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2834,13 +2907,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
@@ -2849,15 +2915,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2875,40 +2941,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2938,7 +2972,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2967,29 +3001,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3010,8 +3024,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3111,12 +3125,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BF02-49D3-B841-B45ECADFC07B}"/>
+              <c16:uniqueId val="{00000000-8EF9-4C3F-AE9F-B00FC924F2F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:v>Scotty</c:v>
@@ -3127,8 +3141,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3225,12 +3239,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BF02-49D3-B841-B45ECADFC07B}"/>
+              <c16:uniqueId val="{00000001-8EF9-4C3F-AE9F-B00FC924F2F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:v>Raymond</c:v>
@@ -3241,8 +3255,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3333,7 +3347,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BF02-49D3-B841-B45ECADFC07B}"/>
+              <c16:uniqueId val="{00000002-8EF9-4C3F-AE9F-B00FC924F2F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3349,8 +3363,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3447,7 +3461,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BF02-49D3-B841-B45ECADFC07B}"/>
+              <c16:uniqueId val="{00000003-8EF9-4C3F-AE9F-B00FC924F2F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3484,16 +3498,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3531,9 +3545,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
@@ -3544,15 +3558,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3571,13 +3585,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -3586,15 +3593,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3612,40 +3619,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3675,7 +3650,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3704,29 +3679,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3745,9 +3700,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3850,12 +3805,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8FB9-4299-838D-615422DF883D}"/>
+              <c16:uniqueId val="{00000000-4DD3-467F-BDB9-899D5F18FFC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:v>Scotty</c:v>
@@ -3865,9 +3820,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3967,12 +3922,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8FB9-4299-838D-615422DF883D}"/>
+              <c16:uniqueId val="{00000001-4DD3-467F-BDB9-899D5F18FFC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:v>Raymond</c:v>
@@ -3982,9 +3937,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -4078,7 +4033,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8FB9-4299-838D-615422DF883D}"/>
+              <c16:uniqueId val="{00000002-4DD3-467F-BDB9-899D5F18FFC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4093,9 +4048,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -4195,7 +4150,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8FB9-4299-838D-615422DF883D}"/>
+              <c16:uniqueId val="{00000003-4DD3-467F-BDB9-899D5F18FFC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4231,16 +4186,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4278,9 +4233,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
@@ -4291,15 +4246,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4318,13 +4273,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
@@ -4333,15 +4281,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4359,40 +4307,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4441,181 +4357,50 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
   <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4626,22 +4411,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4650,16 +4429,13 @@
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
@@ -4682,25 +4458,23 @@
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:ln cap="rnd">
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="1">
@@ -4711,204 +4485,173 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:ln>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout/>
   <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
       <a:ln>
-        <a:noFill/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4918,22 +4661,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4942,32 +4684,34 @@
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:lnRef idx="1">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:tint val="75000"/>
       </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4977,16 +4721,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4994,11 +4735,8 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:ln cap="rnd">
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5007,45 +4745,46 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -5054,1521 +4793,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6629,7 +4853,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C85C5A-55EE-4362-A717-2FFFAEB8AD04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6665,13 +4889,11 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98861842-9976-429E-9443-BB380C7F100C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6703,13 +4925,11 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F635B39-D5CB-463C-8277-FFF979CBC234}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6738,16 +4958,14 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71B799C-972F-4C8E-B99C-0158607B134B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6776,16 +4994,14 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DDC45B-C593-41C9-ACCE-A3506E6CBF71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7099,9 +5315,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2:AB14"/>
     </sheetView>
   </sheetViews>
@@ -7156,7 +5372,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -7183,7 +5399,7 @@
         <v>9</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W1" t="s">
         <v>2</v>
@@ -7210,7 +5426,7 @@
         <v>9</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG1" t="s">
         <v>2</v>
@@ -8443,6 +6659,107 @@
       </c>
       <c r="AN14" s="5">
         <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="O15" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="T15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>4.41</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>0.192</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -8498,7 +6815,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -8525,7 +6842,7 @@
         <v>9</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W1" t="s">
         <v>2</v>
@@ -8552,7 +6869,7 @@
         <v>9</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG1" t="s">
         <v>2</v>
@@ -8581,7 +6898,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4">
         <v>0.83599999999999997</v>
@@ -8661,7 +6978,7 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
         <v>0.83</v>
@@ -9002,7 +7319,7 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4">
         <v>0.71099999999999997</v>
@@ -9242,7 +7559,7 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4">
         <v>0.75</v>
@@ -9583,7 +7900,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4">
         <v>0.73699999999999999</v>
@@ -9647,7 +7964,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
@@ -9693,7 +8010,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -9720,7 +8037,7 @@
         <v>9</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W1" t="s">
         <v>2</v>
@@ -9747,7 +8064,7 @@
         <v>9</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG1" t="s">
         <v>2</v>
@@ -9776,7 +8093,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4">
         <v>0.83599999999999997</v>
@@ -10138,7 +8455,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4">
         <v>0.83</v>
@@ -10580,7 +8897,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4">
         <v>0.71099999999999997</v>
@@ -10862,7 +9179,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4">
         <v>0.75</v>
@@ -11304,7 +9621,7 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4">
         <v>0.73699999999999999</v>
@@ -11359,6 +9676,107 @@
       </c>
       <c r="AF19" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D20" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="O20" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="T20" s="5">
+        <v>-1</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>4.41</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>0.192</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AM20" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="AN20" s="5">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -11370,7 +9788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AE48" sqref="AE48"/>
     </sheetView>
   </sheetViews>

--- a/Outputs/stats over time.xlsx
+++ b/Outputs/stats over time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B179445F-4ECE-4CD6-9108-BA2A830DA832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B7E8D6-80A3-493C-8474-CB03A163773B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1068,10 +1068,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$Z$2:$Z$14</c:f>
+              <c:f>'NL SOT'!$Z$2:$Z$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.44700000000000001</c:v>
                 </c:pt>
@@ -1107,6 +1107,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69399999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,10 +1185,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$P$2:$P$14</c:f>
+              <c:f>'NL SOT'!$P$2:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.23899999999999999</c:v>
                 </c:pt>
@@ -1215,6 +1218,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,10 +1296,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$AJ$2:$AJ$14</c:f>
+              <c:f>'NL SOT'!$AJ$2:$AJ$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.10199999999999999</c:v>
                 </c:pt>
@@ -1329,6 +1335,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,10 +1413,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$F$2:$F$14</c:f>
+              <c:f>'NL SOT'!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>9.6000000000000002E-2</c:v>
                 </c:pt>
@@ -1446,6 +1455,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2990,7 +3002,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> at Showdown</a:t>
+              <a:t> at Showdown (Absolute)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5317,7 +5329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2:AB14"/>
     </sheetView>
   </sheetViews>
@@ -9788,8 +9800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE48" sqref="AE48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Outputs/stats over time.xlsx
+++ b/Outputs/stats over time.xlsx
@@ -179,12 +179,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$C$2:$C$18</f>
+              <f>'NL SOT'!$C$2:$C$19</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$M$2:$M$18</f>
+              <f>'NL SOT'!$M$2:$M$19</f>
             </numRef>
           </val>
         </ser>
@@ -223,12 +223,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$W$2:$W$18</f>
+              <f>'NL SOT'!$W$2:$W$19</f>
             </numRef>
           </val>
         </ser>
@@ -245,12 +245,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$AG$2:$AG$18</f>
+              <f>'NL SOT'!$AG$2:$AG$19</f>
             </numRef>
           </val>
         </ser>
@@ -1573,12 +1573,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$F$2:$F$18</f>
+              <f>'NL SOT'!$F$2:$F$19</f>
             </numRef>
           </val>
         </ser>
@@ -1595,12 +1595,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$P$2:$P$18</f>
+              <f>'NL SOT'!$P$2:$P$19</f>
             </numRef>
           </val>
         </ser>
@@ -1617,12 +1617,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$Z$2:$Z$18</f>
+              <f>'NL SOT'!$Z$2:$Z$19</f>
             </numRef>
           </val>
         </ser>
@@ -1639,12 +1639,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$AJ$2:$AJ$18</f>
+              <f>'NL SOT'!$AJ$2:$AJ$19</f>
             </numRef>
           </val>
         </ser>
@@ -1719,12 +1719,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$H$2:$H$18</f>
+              <f>'NL SOT'!$H$2:$H$19</f>
             </numRef>
           </val>
         </ser>
@@ -1741,12 +1741,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$R$2:$R$18</f>
+              <f>'NL SOT'!$R$2:$R$19</f>
             </numRef>
           </val>
         </ser>
@@ -1763,12 +1763,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$AB$2:$AB$18</f>
+              <f>'NL SOT'!$AB$2:$AB$19</f>
             </numRef>
           </val>
         </ser>
@@ -1785,12 +1785,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$AL$2:$AL$18</f>
+              <f>'NL SOT'!$AL$2:$AL$19</f>
             </numRef>
           </val>
         </ser>
@@ -1865,12 +1865,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$S$2:$S$18</f>
+              <f>'NL SOT'!$S$2:$S$19</f>
             </numRef>
           </val>
         </ser>
@@ -1887,12 +1887,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$17</f>
+              <f>'NL SOT'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$AC$2:$AC$18</f>
+              <f>'NL SOT'!$AC$2:$AC$19</f>
             </numRef>
           </val>
         </ser>
@@ -1968,12 +1968,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$C$2:$C$23</f>
+              <f>'combined SOT'!$C$2:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -1990,12 +1990,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$M$2:$M$23</f>
+              <f>'combined SOT'!$M$2:$M$24</f>
             </numRef>
           </val>
         </ser>
@@ -2012,12 +2012,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$W$2:$W$23</f>
+              <f>'combined SOT'!$W$2:$W$24</f>
             </numRef>
           </val>
         </ser>
@@ -2034,12 +2034,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$AG$2:$AG$23</f>
+              <f>'combined SOT'!$AG$2:$AG$24</f>
             </numRef>
           </val>
         </ser>
@@ -2130,12 +2130,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$F$2:$F$23</f>
+              <f>'combined SOT'!$F$2:$F$24</f>
             </numRef>
           </val>
         </ser>
@@ -2152,12 +2152,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$P$2:$P$23</f>
+              <f>'combined SOT'!$P$2:$P$24</f>
             </numRef>
           </val>
         </ser>
@@ -2174,12 +2174,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$Z$2:$Z$23</f>
+              <f>'combined SOT'!$Z$2:$Z$24</f>
             </numRef>
           </val>
         </ser>
@@ -2196,12 +2196,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$AJ$2:$AJ$23</f>
+              <f>'combined SOT'!$AJ$2:$AJ$24</f>
             </numRef>
           </val>
         </ser>
@@ -2277,12 +2277,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$H$2:$H$23</f>
+              <f>'combined SOT'!$H$2:$H$24</f>
             </numRef>
           </val>
         </ser>
@@ -2299,12 +2299,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$R$2:$R$23</f>
+              <f>'combined SOT'!$R$2:$R$24</f>
             </numRef>
           </val>
         </ser>
@@ -2321,12 +2321,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$AB$2:$AB$23</f>
+              <f>'combined SOT'!$AB$2:$AB$24</f>
             </numRef>
           </val>
         </ser>
@@ -2343,12 +2343,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$AL$2:$AL$23</f>
+              <f>'combined SOT'!$AL$2:$AL$24</f>
             </numRef>
           </val>
         </ser>
@@ -2424,12 +2424,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$S$2:$S$23</f>
+              <f>'combined SOT'!$S$2:$S$24</f>
             </numRef>
           </val>
         </ser>
@@ -2446,12 +2446,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$22</f>
+              <f>'combined SOT'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$AC$2:$AC$23</f>
+              <f>'combined SOT'!$AC$2:$AC$24</f>
             </numRef>
           </val>
         </ser>
@@ -3551,7 +3551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD20"/>
@@ -5314,6 +5314,90 @@
       </c>
       <c r="AN17" s="5" t="n">
         <v>0.41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>06/28/21</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>0.0519</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AB18" s="4" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="AC18" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AD18" s="5" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Didn't play</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6650,7 +6734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN22"/>
+  <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD22"/>
@@ -8803,6 +8887,90 @@
       </c>
       <c r="AN22" s="5" t="n">
         <v>0.41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06/28/21</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="O23" s="4" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="Q23" s="4" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="R23" s="4" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="S23" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T23" s="5" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="W23" s="4" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="X23" s="4" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="Y23" s="4" t="n">
+        <v>0.0519</v>
+      </c>
+      <c r="Z23" s="4" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="AA23" s="4" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AB23" s="4" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="AC23" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AD23" s="5" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Didn't play</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats over time.xlsx
+++ b/Outputs/stats over time.xlsx
@@ -9,8 +9,8 @@
     <sheet name="NL SOT" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PLO SOT" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="combined SOT" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="combined charts" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="NL charts" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NL charts" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="combined charts" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="PLO charts" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -179,12 +179,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$C$2:$C$23</f>
+              <f>'NL SOT'!$C$2:$C$19</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$M$2:$M$23</f>
+              <f>'NL SOT'!$M$2:$M$19</f>
             </numRef>
           </val>
         </ser>
@@ -223,12 +223,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$W$2:$W$23</f>
+              <f>'NL SOT'!$W$2:$W$19</f>
             </numRef>
           </val>
         </ser>
@@ -245,12 +245,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$AG$2:$AG$23</f>
+              <f>'NL SOT'!$AG$2:$AG$19</f>
             </numRef>
           </val>
         </ser>
@@ -1573,12 +1573,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$F$2:$F$23</f>
+              <f>'NL SOT'!$F$2:$F$19</f>
             </numRef>
           </val>
         </ser>
@@ -1595,12 +1595,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$P$2:$P$23</f>
+              <f>'NL SOT'!$P$2:$P$19</f>
             </numRef>
           </val>
         </ser>
@@ -1617,12 +1617,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$Z$2:$Z$23</f>
+              <f>'NL SOT'!$Z$2:$Z$19</f>
             </numRef>
           </val>
         </ser>
@@ -1639,12 +1639,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$AJ$2:$AJ$23</f>
+              <f>'NL SOT'!$AJ$2:$AJ$19</f>
             </numRef>
           </val>
         </ser>
@@ -1719,12 +1719,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$H$2:$H$23</f>
+              <f>'NL SOT'!$H$2:$H$19</f>
             </numRef>
           </val>
         </ser>
@@ -1741,12 +1741,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$R$2:$R$23</f>
+              <f>'NL SOT'!$R$2:$R$19</f>
             </numRef>
           </val>
         </ser>
@@ -1763,12 +1763,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$AB$2:$AB$23</f>
+              <f>'NL SOT'!$AB$2:$AB$19</f>
             </numRef>
           </val>
         </ser>
@@ -1785,12 +1785,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$AL$2:$AL$23</f>
+              <f>'NL SOT'!$AL$2:$AL$19</f>
             </numRef>
           </val>
         </ser>
@@ -1865,12 +1865,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$S$2:$S$23</f>
+              <f>'NL SOT'!$S$2:$S$19</f>
             </numRef>
           </val>
         </ser>
@@ -1887,12 +1887,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined SOT'!$A$2:$A$23</f>
+              <f>'NL SOT'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined SOT'!$AC$2:$AC$23</f>
+              <f>'NL SOT'!$AC$2:$AC$19</f>
             </numRef>
           </val>
         </ser>
@@ -1968,12 +1968,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$C$2:$C$18</f>
+              <f>'combined SOT'!$C$2:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -1990,12 +1990,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$M$2:$M$18</f>
+              <f>'combined SOT'!$M$2:$M$24</f>
             </numRef>
           </val>
         </ser>
@@ -2012,12 +2012,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$W$2:$W$18</f>
+              <f>'combined SOT'!$W$2:$W$24</f>
             </numRef>
           </val>
         </ser>
@@ -2034,12 +2034,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$AG$2:$AG$18</f>
+              <f>'combined SOT'!$AG$2:$AG$24</f>
             </numRef>
           </val>
         </ser>
@@ -2130,12 +2130,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$F$2:$F$18</f>
+              <f>'combined SOT'!$F$2:$F$24</f>
             </numRef>
           </val>
         </ser>
@@ -2152,12 +2152,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$P$2:$P$18</f>
+              <f>'combined SOT'!$P$2:$P$24</f>
             </numRef>
           </val>
         </ser>
@@ -2174,12 +2174,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$Z$2:$Z$18</f>
+              <f>'combined SOT'!$Z$2:$Z$24</f>
             </numRef>
           </val>
         </ser>
@@ -2196,12 +2196,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$AJ$2:$AJ$18</f>
+              <f>'combined SOT'!$AJ$2:$AJ$24</f>
             </numRef>
           </val>
         </ser>
@@ -2277,12 +2277,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$H$2:$H$18</f>
+              <f>'combined SOT'!$H$2:$H$24</f>
             </numRef>
           </val>
         </ser>
@@ -2299,12 +2299,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$R$2:$R$18</f>
+              <f>'combined SOT'!$R$2:$R$24</f>
             </numRef>
           </val>
         </ser>
@@ -2321,12 +2321,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$AB$2:$AB$18</f>
+              <f>'combined SOT'!$AB$2:$AB$24</f>
             </numRef>
           </val>
         </ser>
@@ -2343,12 +2343,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$AL$2:$AL$18</f>
+              <f>'combined SOT'!$AL$2:$AL$24</f>
             </numRef>
           </val>
         </ser>
@@ -2424,12 +2424,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$S$2:$S$18</f>
+              <f>'combined SOT'!$S$2:$S$24</f>
             </numRef>
           </val>
         </ser>
@@ -2446,12 +2446,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL SOT'!$A$2:$A$18</f>
+              <f>'combined SOT'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL SOT'!$AC$2:$AC$18</f>
+              <f>'combined SOT'!$AC$2:$AC$24</f>
             </numRef>
           </val>
         </ser>
@@ -3551,7 +3551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN18"/>
+  <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
@@ -5417,6 +5417,90 @@
       </c>
       <c r="AN18" s="5" t="n">
         <v>0.41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07/05/21</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="N19" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD19" s="5" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Didn't play</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6753,7 +6837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN23"/>
+  <dimension ref="A1:AN24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD23"/>
@@ -9009,6 +9093,90 @@
       </c>
       <c r="AN23" s="5" t="n">
         <v>0.41</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>07/05/21</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="N24" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="P24" s="4" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="Q24" s="4" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="R24" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="S24" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="W24" s="4" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="X24" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Y24" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z24" s="4" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="AA24" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AB24" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="AC24" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD24" s="5" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Didn't play</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats over time.xlsx
+++ b/Outputs/stats over time.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D9E96C-B0D3-4F05-97FB-7AFE3AE73947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31CF7AF-49B4-4E27-AE3A-71A7F060ABA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NL SOT" sheetId="1" r:id="rId1"/>
     <sheet name="PLO SOT" sheetId="2" r:id="rId2"/>
     <sheet name="combined SOT" sheetId="3" r:id="rId3"/>
-    <sheet name="NL charts" sheetId="4" r:id="rId4"/>
+    <sheet name="PLO charts" sheetId="4" r:id="rId4"/>
     <sheet name="combined charts" sheetId="5" r:id="rId5"/>
-    <sheet name="PLO charts" sheetId="6" r:id="rId6"/>
+    <sheet name="NL charts" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>07/12/21</t>
+  </si>
+  <si>
+    <t>07/20/21</t>
   </si>
   <si>
     <t>Won at showdown</t>
@@ -269,35 +272,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -309,104 +312,68 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$C$2:$C$21</c:f>
+              <c:f>'PLO SOT'!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.71699999999999997</c:v>
+                  <c:v>0.83599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69199999999999995</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77100000000000002</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.629</c:v>
+                  <c:v>0.83899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71699999999999997</c:v>
+                  <c:v>0.83599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74299999999999999</c:v>
+                  <c:v>0.71099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80800000000000005</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72099999999999997</c:v>
+                  <c:v>0.85699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69299999999999995</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63200000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57799999999999996</c:v>
+                  <c:v>0.77200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65700000000000003</c:v>
+                  <c:v>0.73699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.70699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.65200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.59399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.504</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.67900000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.70699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.85199999999999998</c:v>
+                  <c:v>0.75600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4FDF-4EC5-93D9-9CDC0DFC5333}"/>
+              <c16:uniqueId val="{00000000-898F-4DFC-BFAF-2DE6458F669D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -424,35 +391,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -464,95 +431,50 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$M$2:$M$21</c:f>
+              <c:f>'PLO SOT'!$M$2:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.40300000000000002</c:v>
-                </c:pt>
+                <c:ptCount val="14"/>
                 <c:pt idx="1">
-                  <c:v>0.39100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47899999999999998</c:v>
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.49</c:v>
+                  <c:v>0.53200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51600000000000001</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32400000000000001</c:v>
+                  <c:v>0.88200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47799999999999998</c:v>
+                  <c:v>0.71299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.76800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.438</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.47099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.53900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.46600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.52600000000000002</c:v>
+                  <c:v>0.69599999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4FDF-4EC5-93D9-9CDC0DFC5333}"/>
+              <c16:uniqueId val="{00000001-898F-4DFC-BFAF-2DE6458F669D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -568,42 +490,37 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -615,101 +532,59 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$W$2:$W$21</c:f>
+              <c:f>'PLO SOT'!$W$2:$W$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.64200000000000002</c:v>
+                  <c:v>0.79700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71299999999999997</c:v>
+                  <c:v>0.50900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59299999999999997</c:v>
+                  <c:v>0.59199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66700000000000004</c:v>
+                  <c:v>0.90200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61699999999999999</c:v>
+                  <c:v>0.78300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76200000000000001</c:v>
+                  <c:v>0.65700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.752</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.63400000000000001</c:v>
+                  <c:v>0.41899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69399999999999995</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.64900000000000002</c:v>
+                  <c:v>0.78800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.57399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.59299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.46800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.52700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.36499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.57699999999999996</c:v>
+                  <c:v>0.72299999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4FDF-4EC5-93D9-9CDC0DFC5333}"/>
+              <c16:uniqueId val="{00000002-898F-4DFC-BFAF-2DE6458F669D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -727,35 +602,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -767,98 +642,59 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$AG$2:$AG$21</c:f>
+              <c:f>'PLO SOT'!$AG$2:$AG$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.432</c:v>
+                  <c:v>0.78500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33900000000000002</c:v>
+                  <c:v>0.52100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.58399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36199999999999999</c:v>
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36599999999999999</c:v>
+                  <c:v>0.63800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.39500000000000002</c:v>
+                  <c:v>0.64300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50700000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.375</c:v>
+                  <c:v>0.76500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.59799999999999998</c:v>
+                  <c:v>0.61399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.44800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.48199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.46600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.45600000000000002</c:v>
+                  <c:v>0.52600000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4FDF-4EC5-93D9-9CDC0DFC5333}"/>
+              <c16:uniqueId val="{00000003-898F-4DFC-BFAF-2DE6458F669D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -996,35 +832,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -1036,62 +872,110 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$F$2:$F$15</c:f>
+              <c:f>'NL SOT'!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.20300000000000001</c:v>
+                  <c:v>9.6000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13200000000000001</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14099999999999999</c:v>
+                  <c:v>0.113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.191</c:v>
+                  <c:v>0.17899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22700000000000001</c:v>
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.159</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3</c:v>
+                  <c:v>0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24299999999999999</c:v>
+                  <c:v>0.24399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.125</c:v>
+                  <c:v>0.114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17100000000000001</c:v>
+                  <c:v>0.14899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.185</c:v>
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2237-4C77-812A-78FCCFF18FD5}"/>
+              <c16:uniqueId val="{00000000-43F4-49FE-809B-2A47A727B055}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1109,35 +993,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -1149,44 +1033,101 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$P$2:$P$15</c:f>
+              <c:f>'NL SOT'!$P$2:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53400000000000003</c:v>
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.432</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.503</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.371</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.71399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.68799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.497</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.755</c:v>
+                <c:pt idx="20">
+                  <c:v>0.44900000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2237-4C77-812A-78FCCFF18FD5}"/>
+              <c16:uniqueId val="{00000001-43F4-49FE-809B-2A47A727B055}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1202,37 +1143,42 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -1244,53 +1190,107 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$Z$2:$Z$15</c:f>
+              <c:f>'NL SOT'!$Z$2:$Z$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.42</c:v>
+                  <c:v>0.44700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.307</c:v>
+                  <c:v>0.59199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.45500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72199999999999998</c:v>
+                  <c:v>0.41199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.375</c:v>
+                  <c:v>0.42099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52300000000000002</c:v>
+                  <c:v>0.61299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33800000000000002</c:v>
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52800000000000002</c:v>
+                  <c:v>0.60699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.61299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45</c:v>
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40699999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2237-4C77-812A-78FCCFF18FD5}"/>
+              <c16:uniqueId val="{00000002-43F4-49FE-809B-2A47A727B055}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1308,35 +1308,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -1348,53 +1348,104 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$AJ$2:$AJ$15</c:f>
+              <c:f>'NL SOT'!$AJ$2:$AJ$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.312</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.217</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.314</c:v>
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.26600000000000001</c:v>
+                  <c:v>0.13100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.245</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.48299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.29499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.26800000000000002</c:v>
+                <c:pt idx="13">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2237-4C77-812A-78FCCFF18FD5}"/>
+              <c16:uniqueId val="{00000003-43F4-49FE-809B-2A47A727B055}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1514,35 +1565,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -1554,62 +1605,110 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$H$2:$H$15</c:f>
+              <c:f>'NL SOT'!$H$2:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.38500000000000001</c:v>
+                  <c:v>0.48899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.55600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42299999999999999</c:v>
+                  <c:v>0.53800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52900000000000003</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59299999999999997</c:v>
+                  <c:v>0.51300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54500000000000004</c:v>
+                  <c:v>0.44400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.125</c:v>
+                  <c:v>0.55200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83299999999999996</c:v>
+                  <c:v>0.28599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51400000000000001</c:v>
+                  <c:v>0.51500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.53200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47399999999999998</c:v>
+                  <c:v>0.29399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7</c:v>
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E7A-46DB-8914-27563FE5A5F7}"/>
+              <c16:uniqueId val="{00000000-DA65-416C-92CC-7676804C6110}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1627,35 +1726,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -1667,44 +1766,101 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$R$2:$R$15</c:f>
+              <c:f>'NL SOT'!$R$2:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.316</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41699999999999998</c:v>
+                  <c:v>0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.42899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4E7A-46DB-8914-27563FE5A5F7}"/>
+              <c16:uniqueId val="{00000001-DA65-416C-92CC-7676804C6110}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1720,37 +1876,42 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -1762,53 +1923,107 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$AB$2:$AB$15</c:f>
+              <c:f>'NL SOT'!$AB$2:$AB$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.72</c:v>
+                  <c:v>0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63600000000000001</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.42199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.48599999999999999</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.38100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4E7A-46DB-8914-27563FE5A5F7}"/>
+              <c16:uniqueId val="{00000002-DA65-416C-92CC-7676804C6110}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1826,35 +2041,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -1866,53 +2081,104 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$AL$2:$AL$15</c:f>
+              <c:f>'NL SOT'!$AL$2:$AL$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.34599999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38700000000000001</c:v>
+                  <c:v>0.44400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40699999999999997</c:v>
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.44800000000000001</c:v>
+                  <c:v>0.53300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75</c:v>
+                  <c:v>0.44400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16700000000000001</c:v>
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.56100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.42899999999999999</c:v>
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4E7A-46DB-8914-27563FE5A5F7}"/>
+              <c16:uniqueId val="{00000003-DA65-416C-92CC-7676804C6110}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2032,35 +2298,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -2072,44 +2338,101 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$S$2:$S$15</c:f>
+              <c:f>'NL SOT'!$S$2:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6</c:v>
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60DD-4508-9B3E-8BB4E125B092}"/>
+              <c16:uniqueId val="{00000000-4D71-4A36-B36E-6E99DD7EBA16}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2127,35 +2450,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -2167,53 +2490,107 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$AC$2:$AC$15</c:f>
+              <c:f>'NL SOT'!$AC$2:$AC$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.36</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.43</c:v>
+                <c:pt idx="18">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-60DD-4508-9B3E-8BB4E125B092}"/>
+              <c16:uniqueId val="{00000001-4D71-4A36-B36E-6E99DD7EBA16}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2255,7 +2632,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2333,35 +2710,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -2373,104 +2750,68 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$F$2:$F$21</c:f>
+              <c:f>'PLO SOT'!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>9.6000000000000002E-2</c:v>
+                  <c:v>0.20300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>0.13200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.113</c:v>
+                  <c:v>0.14099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.106</c:v>
+                  <c:v>0.22700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.159</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.114</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13600000000000001</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14899999999999999</c:v>
+                  <c:v>0.17100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.126</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.7000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.157</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.11799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.14799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.21099999999999999</c:v>
+                  <c:v>0.182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6069-4269-87F2-7D73115673D6}"/>
+              <c16:uniqueId val="{00000000-7061-49F6-820B-8193D609B8E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2486,42 +2827,37 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -2533,95 +2869,50 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$P$2:$P$21</c:f>
+              <c:f>'PLO SOT'!$P$2:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.23899999999999999</c:v>
-                </c:pt>
+                <c:ptCount val="14"/>
                 <c:pt idx="1">
-                  <c:v>0.36599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.432</c:v>
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19700000000000001</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.439</c:v>
+                  <c:v>0.71399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.224</c:v>
+                  <c:v>0.68799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38</c:v>
+                  <c:v>0.497</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33100000000000002</c:v>
+                  <c:v>0.755</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.39600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.44900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.503</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.45400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.371</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.42</c:v>
+                  <c:v>0.54100000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6069-4269-87F2-7D73115673D6}"/>
+              <c16:uniqueId val="{00000001-7061-49F6-820B-8193D609B8E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2639,35 +2930,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -2679,101 +2970,59 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$Z$2:$Z$21</c:f>
+              <c:f>'PLO SOT'!$Z$2:$Z$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.44700000000000001</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59199999999999997</c:v>
+                  <c:v>0.307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45500000000000002</c:v>
+                  <c:v>0.29399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41199999999999998</c:v>
+                  <c:v>0.72199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42099999999999999</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61299999999999999</c:v>
+                  <c:v>0.52300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56699999999999995</c:v>
+                  <c:v>0.33800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60699999999999998</c:v>
+                  <c:v>0.52800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61299999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.51800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.59299999999999997</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.69399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.45900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.53800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.434</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.51300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.32400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.48099999999999998</c:v>
+                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6069-4269-87F2-7D73115673D6}"/>
+              <c16:uniqueId val="{00000002-7061-49F6-820B-8193D609B8E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2791,35 +3040,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -2831,98 +3080,59 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$AJ$2:$AJ$21</c:f>
+              <c:f>'PLO SOT'!$AJ$2:$AJ$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.10199999999999999</c:v>
+                  <c:v>0.312</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7999999999999995E-2</c:v>
+                  <c:v>0.217</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.314</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.23100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13100000000000001</c:v>
+                <c:pt idx="5">
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24</c:v>
+                  <c:v>0.245</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.129</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.25900000000000001</c:v>
+                  <c:v>0.48299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.309</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16</c:v>
+                  <c:v>0.29499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.245</c:v>
+                  <c:v>0.26800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.17399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.124</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.17199999999999999</c:v>
+                  <c:v>0.23699999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6069-4269-87F2-7D73115673D6}"/>
+              <c16:uniqueId val="{00000003-7061-49F6-820B-8193D609B8E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3042,35 +3252,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -3082,104 +3292,68 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$H$2:$H$21</c:f>
+              <c:f>'PLO SOT'!$H$2:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.48899999999999999</c:v>
+                  <c:v>0.38500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.55600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53800000000000003</c:v>
+                  <c:v>0.42299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.52900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51300000000000001</c:v>
+                  <c:v>0.59299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44400000000000001</c:v>
+                  <c:v>0.54500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55200000000000005</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28599999999999998</c:v>
+                  <c:v>0.83299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51500000000000001</c:v>
+                  <c:v>0.51400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53200000000000003</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.47399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.69599999999999995</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.73799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>0.52600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.60399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.44400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.71099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.38200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8923-4AF5-BC5C-9C0229FD7482}"/>
+              <c16:uniqueId val="{00000000-50FF-45DB-88FA-C6B5839E4BE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3197,35 +3371,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -3237,95 +3411,50 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$R$2:$R$21</c:f>
+              <c:f>'PLO SOT'!$R$2:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.316</c:v>
-                </c:pt>
+                <c:ptCount val="14"/>
                 <c:pt idx="1">
-                  <c:v>0.58299999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.27300000000000002</c:v>
+                  <c:v>0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.36399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61099999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.375</c:v>
+                  <c:v>0.42899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39300000000000002</c:v>
+                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.55300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.53700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.36199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.36399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.72699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.6</c:v>
+                  <c:v>0.54500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8923-4AF5-BC5C-9C0229FD7482}"/>
+              <c16:uniqueId val="{00000001-50FF-45DB-88FA-C6B5839E4BE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3343,35 +3472,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -3383,101 +3512,59 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$AB$2:$AB$21</c:f>
+              <c:f>'PLO SOT'!$AB$2:$AB$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.63600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35699999999999998</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42199999999999999</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55200000000000005</c:v>
+                  <c:v>0.23499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59299999999999997</c:v>
+                  <c:v>0.66700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.23100000000000001</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38100000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.66700000000000004</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.312</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.32600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.41199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.45500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.36399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.45</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8923-4AF5-BC5C-9C0229FD7482}"/>
+              <c16:uniqueId val="{00000002-50FF-45DB-88FA-C6B5839E4BE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3495,35 +3582,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -3535,98 +3622,59 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$AL$2:$AL$21</c:f>
+              <c:f>'PLO SOT'!$AL$2:$AL$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.34599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44400000000000001</c:v>
+                  <c:v>0.38700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.44400000000000001</c:v>
+                  <c:v>0.40699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53300000000000003</c:v>
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44400000000000001</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>0.16700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56100000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.76900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.439</c:v>
+                  <c:v>0.42899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.61199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.47399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.63800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.46400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.48099999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8923-4AF5-BC5C-9C0229FD7482}"/>
+              <c16:uniqueId val="{00000003-50FF-45DB-88FA-C6B5839E4BE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3746,35 +3794,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -3786,95 +3834,50 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$S$2:$S$21</c:f>
+              <c:f>'PLO SOT'!$S$2:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.41</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.51</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0DD8-4203-BEA9-30B5686CEBEE}"/>
+              <c16:uniqueId val="{00000000-3AF3-442D-8B80-B78FC9BB6FAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3892,35 +3895,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL SOT'!$A$2:$A$21</c:f>
+              <c:f>'PLO SOT'!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>04/16/21</c:v>
+                  <c:v>04/09/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/19/21</c:v>
+                  <c:v>04/26/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/24/21</c:v>
+                  <c:v>04/29/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/29/21</c:v>
+                  <c:v>05/13/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/04/21</c:v>
+                  <c:v>05/17/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>05/13/21</c:v>
+                  <c:v>05/20/21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>05/17/21</c:v>
+                  <c:v>05/24/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05/24/21</c:v>
+                  <c:v>05/27/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05/27/21</c:v>
+                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -3932,101 +3935,59 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/14/21</c:v>
+                  <c:v>06/15/21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06/17/21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/21/21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/24/21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/28/21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>07/05/21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>07/08/21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>07/12/21</c:v>
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL SOT'!$AC$2:$AC$21</c:f>
+              <c:f>'PLO SOT'!$AC$2:$AC$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.51</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.48</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.61</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0DD8-4203-BEA9-30B5686CEBEE}"/>
+              <c16:uniqueId val="{00000001-3AF3-442D-8B80-B78FC9BB6FAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4068,7 +4029,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4145,9 +4106,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -4222,16 +4183,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$C$2:$C$26</c:f>
+              <c:f>'combined SOT'!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.83599999999999997</c:v>
                 </c:pt>
@@ -4306,13 +4270,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-39A2-4D11-8BBF-AA1DF7F11BB8}"/>
+              <c16:uniqueId val="{00000000-E5C7-444D-BD76-067CBA24CB51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4330,9 +4297,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -4407,16 +4374,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$M$2:$M$26</c:f>
+              <c:f>'combined SOT'!$M$2:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="1">
                   <c:v>0.40300000000000002</c:v>
                 </c:pt>
@@ -4473,13 +4443,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.61799999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-39A2-4D11-8BBF-AA1DF7F11BB8}"/>
+              <c16:uniqueId val="{00000001-E5C7-444D-BD76-067CBA24CB51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4497,9 +4470,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -4574,16 +4547,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$W$2:$W$26</c:f>
+              <c:f>'combined SOT'!$W$2:$W$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.79700000000000004</c:v>
                 </c:pt>
@@ -4652,13 +4628,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-39A2-4D11-8BBF-AA1DF7F11BB8}"/>
+              <c16:uniqueId val="{00000002-E5C7-444D-BD76-067CBA24CB51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4676,9 +4655,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -4753,16 +4732,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$AG$2:$AG$26</c:f>
+              <c:f>'combined SOT'!$AG$2:$AG$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.78500000000000003</c:v>
                 </c:pt>
@@ -4825,13 +4807,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.40300000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-39A2-4D11-8BBF-AA1DF7F11BB8}"/>
+              <c16:uniqueId val="{00000003-E5C7-444D-BD76-067CBA24CB51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4967,9 +4952,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -5044,16 +5029,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$F$2:$F$26</c:f>
+              <c:f>'combined SOT'!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.20300000000000001</c:v>
                 </c:pt>
@@ -5128,13 +5116,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-28EF-4E08-B535-F8E3C13CA165}"/>
+              <c16:uniqueId val="{00000000-2BED-4E5D-A8E6-EFEE64B1C59D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5152,9 +5143,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -5229,16 +5220,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$P$2:$P$26</c:f>
+              <c:f>'combined SOT'!$P$2:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="1">
                   <c:v>0.23899999999999999</c:v>
                 </c:pt>
@@ -5295,13 +5289,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.51100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-28EF-4E08-B535-F8E3C13CA165}"/>
+              <c16:uniqueId val="{00000001-2BED-4E5D-A8E6-EFEE64B1C59D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5319,9 +5316,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -5396,16 +5393,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$Z$2:$Z$26</c:f>
+              <c:f>'combined SOT'!$Z$2:$Z$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.42</c:v>
                 </c:pt>
@@ -5474,13 +5474,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.36899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-28EF-4E08-B535-F8E3C13CA165}"/>
+              <c16:uniqueId val="{00000002-2BED-4E5D-A8E6-EFEE64B1C59D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5498,9 +5501,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -5575,16 +5578,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$AJ$2:$AJ$26</c:f>
+              <c:f>'combined SOT'!$AJ$2:$AJ$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.312</c:v>
                 </c:pt>
@@ -5647,13 +5653,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-28EF-4E08-B535-F8E3C13CA165}"/>
+              <c16:uniqueId val="{00000003-2BED-4E5D-A8E6-EFEE64B1C59D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5772,9 +5781,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -5849,16 +5858,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$H$2:$H$26</c:f>
+              <c:f>'combined SOT'!$H$2:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.38500000000000001</c:v>
                 </c:pt>
@@ -5933,13 +5945,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.52400000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C572-49F9-B8BD-557AC68379EE}"/>
+              <c16:uniqueId val="{00000000-188B-4008-9666-E66F715DD317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5957,9 +5972,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -6034,16 +6049,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$R$2:$R$26</c:f>
+              <c:f>'combined SOT'!$R$2:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="1">
                   <c:v>0.316</c:v>
                 </c:pt>
@@ -6100,13 +6118,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C572-49F9-B8BD-557AC68379EE}"/>
+              <c16:uniqueId val="{00000001-188B-4008-9666-E66F715DD317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6124,9 +6145,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -6201,16 +6222,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$AB$2:$AB$26</c:f>
+              <c:f>'combined SOT'!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.72</c:v>
                 </c:pt>
@@ -6279,13 +6303,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C572-49F9-B8BD-557AC68379EE}"/>
+              <c16:uniqueId val="{00000002-188B-4008-9666-E66F715DD317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6303,9 +6330,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -6380,16 +6407,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$AL$2:$AL$26</c:f>
+              <c:f>'combined SOT'!$AL$2:$AL$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.34599999999999997</c:v>
                 </c:pt>
@@ -6452,13 +6482,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C572-49F9-B8BD-557AC68379EE}"/>
+              <c16:uniqueId val="{00000003-188B-4008-9666-E66F715DD317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6577,9 +6610,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -6654,16 +6687,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$S$2:$S$26</c:f>
+              <c:f>'combined SOT'!$S$2:$S$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="1">
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
@@ -6720,13 +6756,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E71-4431-B2C5-DD1946D7B5E9}"/>
+              <c16:uniqueId val="{00000000-75A0-4C59-99B1-5127C333152C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6744,9 +6783,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'combined SOT'!$A$2:$A$26</c:f>
+              <c:f>'combined SOT'!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -6821,16 +6860,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'combined SOT'!$AC$2:$AC$26</c:f>
+              <c:f>'combined SOT'!$AC$2:$AC$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
@@ -6899,13 +6941,16 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E71-4431-B2C5-DD1946D7B5E9}"/>
+              <c16:uniqueId val="{00000001-75A0-4C59-99B1-5127C333152C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7025,35 +7070,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -7065,62 +7110,110 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$C$2:$C$15</c:f>
+              <c:f>'NL SOT'!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.83599999999999997</c:v>
+                  <c:v>0.71699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83</c:v>
+                  <c:v>0.69199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84</c:v>
+                  <c:v>0.77100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83899999999999997</c:v>
+                  <c:v>0.629</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83599999999999997</c:v>
+                  <c:v>0.71699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71099999999999997</c:v>
+                  <c:v>0.74299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.80800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85699999999999998</c:v>
+                  <c:v>0.72099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.77200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.73699999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-25D3-49A4-82A8-67398509FEF0}"/>
+              <c16:uniqueId val="{00000000-6F90-436A-8894-D79A01A62DD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7138,35 +7231,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -7178,44 +7271,101 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$M$2:$M$15</c:f>
+              <c:f>'NL SOT'!$M$2:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76100000000000001</c:v>
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53200000000000003</c:v>
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4</c:v>
+                  <c:v>0.51600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88200000000000001</c:v>
+                  <c:v>0.32400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.71299999999999997</c:v>
+                  <c:v>0.47799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.76800000000000002</c:v>
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.438</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-25D3-49A4-82A8-67398509FEF0}"/>
+              <c16:uniqueId val="{00000001-6F90-436A-8894-D79A01A62DD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7233,35 +7383,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -7273,53 +7423,107 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$W$2:$W$15</c:f>
+              <c:f>'NL SOT'!$W$2:$W$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.79700000000000004</c:v>
+                  <c:v>0.64200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50900000000000001</c:v>
+                  <c:v>0.71299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59199999999999997</c:v>
+                  <c:v>0.59299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90200000000000002</c:v>
+                  <c:v>0.66700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78300000000000003</c:v>
+                  <c:v>0.61699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65700000000000003</c:v>
+                  <c:v>0.76200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41899999999999998</c:v>
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75</c:v>
+                  <c:v>0.69399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78800000000000003</c:v>
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-25D3-49A4-82A8-67398509FEF0}"/>
+              <c16:uniqueId val="{00000002-6F90-436A-8894-D79A01A62DD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7337,35 +7541,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO SOT'!$A$2:$A$14</c:f>
+              <c:f>'NL SOT'!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>04/09/21</c:v>
+                  <c:v>04/16/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/26/21</c:v>
+                  <c:v>04/19/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>04/29/21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>05/13/21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>05/17/21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>05/20/21</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>05/24/21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>05/27/21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/28/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05/31/21</c:v>
@@ -7377,53 +7581,104 @@
                   <c:v>06/10/21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/15/21</c:v>
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO SOT'!$AG$2:$AG$15</c:f>
+              <c:f>'NL SOT'!$AG$2:$AG$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.78500000000000003</c:v>
+                  <c:v>0.432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52100000000000002</c:v>
+                  <c:v>0.33900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58399999999999996</c:v>
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.58599999999999997</c:v>
+                  <c:v>0.36199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.63800000000000001</c:v>
+                  <c:v>0.36599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64300000000000002</c:v>
+                  <c:v>0.34599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.50700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76500000000000001</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61399999999999999</c:v>
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-25D3-49A4-82A8-67398509FEF0}"/>
+              <c16:uniqueId val="{00000003-6F90-436A-8894-D79A01A62DD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7446,6 +7701,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8174,32 +8447,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN21"/>
+  <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="9.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8312,7 +8585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -8413,7 +8686,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8514,7 +8787,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -8594,7 +8867,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -8695,7 +8968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -8775,7 +9048,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -8834,7 +9107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -8935,7 +9208,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -9036,7 +9309,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -9137,7 +9410,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -9217,7 +9490,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -9318,7 +9591,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -9419,7 +9692,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -9520,7 +9793,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -9621,7 +9894,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -9722,7 +9995,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -9823,7 +10096,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -9924,7 +10197,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -10004,7 +10277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -10105,7 +10378,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -10204,6 +10477,107 @@
       </c>
       <c r="AN21" s="5">
         <v>0.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.129</v>
+      </c>
+      <c r="G22" s="4">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="O22" s="4">
+        <v>3.85E-2</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="T22" s="5">
+        <v>2.92</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>1.89E-2</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="AJ22" s="4">
+        <v>0.222</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="5">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>
@@ -10213,21 +10587,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="9.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10250,7 +10624,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -10277,7 +10651,7 @@
         <v>6</v>
       </c>
       <c r="R1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
         <v>8</v>
@@ -10304,7 +10678,7 @@
         <v>6</v>
       </c>
       <c r="AB1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC1" t="s">
         <v>8</v>
@@ -10331,7 +10705,7 @@
         <v>6</v>
       </c>
       <c r="AL1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AM1" t="s">
         <v>8</v>
@@ -10340,9 +10714,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4">
         <v>0.83599999999999997</v>
@@ -10420,9 +10794,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4">
         <v>0.83</v>
@@ -10521,7 +10895,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -10622,7 +10996,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -10681,7 +11055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -10761,9 +11135,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4">
         <v>0.71099999999999997</v>
@@ -10841,7 +11215,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -10942,7 +11316,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -11001,9 +11375,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4">
         <v>0.75</v>
@@ -11060,7 +11434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -11140,7 +11514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -11241,7 +11615,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -11342,9 +11716,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4">
         <v>0.73699999999999999</v>
@@ -11399,6 +11773,107 @@
       </c>
       <c r="AF14" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.182</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="O15" s="4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="T15" s="5">
+        <v>4.47</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0.191</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0.222</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
@@ -11408,21 +11883,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AN26"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="9.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11445,7 +11920,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -11472,7 +11947,7 @@
         <v>6</v>
       </c>
       <c r="R1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
         <v>8</v>
@@ -11499,7 +11974,7 @@
         <v>6</v>
       </c>
       <c r="AB1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC1" t="s">
         <v>8</v>
@@ -11526,7 +12001,7 @@
         <v>6</v>
       </c>
       <c r="AL1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AM1" t="s">
         <v>8</v>
@@ -11535,9 +12010,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4">
         <v>0.83599999999999997</v>
@@ -11615,7 +12090,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -11716,7 +12191,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -11817,7 +12292,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -11897,9 +12372,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4">
         <v>0.83</v>
@@ -11998,7 +12473,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -12099,7 +12574,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -12179,7 +12654,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -12238,7 +12713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -12339,9 +12814,9 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4">
         <v>0.71099999999999997</v>
@@ -12419,7 +12894,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -12520,7 +12995,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -12621,9 +13096,9 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4">
         <v>0.75</v>
@@ -12680,7 +13155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -12760,7 +13235,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -12861,7 +13336,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -12962,7 +13437,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -13063,9 +13538,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4">
         <v>0.73699999999999999</v>
@@ -13122,7 +13597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -13223,7 +13698,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -13324,7 +13799,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -13425,7 +13900,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -13526,7 +14001,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -13606,7 +14081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -13707,7 +14182,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -13806,6 +14281,107 @@
       </c>
       <c r="AN26" s="5">
         <v>0.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.755</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.496</v>
+      </c>
+      <c r="O27" s="4">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="T27" s="5">
+        <v>3.87</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>1.55E-2</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="AN27" s="5">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -13817,11 +14393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -13834,7 +14408,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -13845,9 +14419,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="W88" sqref="W88"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
